--- a/requests/static_data/wellbeing-toronto-safety.xlsx
+++ b/requests/static_data/wellbeing-toronto-safety.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafee\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBC8545-80C3-480E-A62B-60647BD13C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19440" windowHeight="14625"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndicatorMetaData" sheetId="6" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="213">
   <si>
     <t>Arsons</t>
   </si>
@@ -637,13 +643,31 @@
   </si>
   <si>
     <t>Neighbourhood Id</t>
+  </si>
+  <si>
+    <t>Cabbagetown-South St. James Town</t>
+  </si>
+  <si>
+    <t>Danforth East York</t>
+  </si>
+  <si>
+    <t>Dovercourt-Wallace Emerson-Junction</t>
+  </si>
+  <si>
+    <t>Mimico (includes Humber Bay Shores)</t>
+  </si>
+  <si>
+    <t>North St. James Town</t>
+  </si>
+  <si>
+    <t>Weston-Pelham Park</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -688,6 +712,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -734,7 +766,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,9 +798,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,6 +850,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -975,25 +1043,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1087,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1113,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1139,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1165,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1123,7 +1191,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1217,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1243,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1201,7 +1269,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1295,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1253,7 +1321,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1347,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1305,7 +1373,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1399,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1425,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1409,7 +1477,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1435,7 +1503,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1529,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1487,20 +1555,20 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H258">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H258">
     <sortCondition ref="H2:H258"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1508,41 +1576,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.75">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -1598,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1654,7 +1722,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1710,7 +1778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1766,7 +1834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1822,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1878,7 +1946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -1934,7 +2002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1990,7 +2058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2046,7 +2114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2102,7 +2170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -2158,7 +2226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2214,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2270,7 +2338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2326,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2382,7 +2450,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2438,7 +2506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2494,7 +2562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2550,7 +2618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2606,7 +2674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2662,7 +2730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -2718,7 +2786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2774,7 +2842,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2830,7 +2898,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2886,7 +2954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -2942,7 +3010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -2998,7 +3066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -3054,7 +3122,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -3110,7 +3178,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -3166,7 +3234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -3222,7 +3290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -3278,7 +3346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -3334,7 +3402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -3390,7 +3458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -3446,7 +3514,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -3502,7 +3570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -3558,7 +3626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -3614,7 +3682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -3670,7 +3738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -3726,7 +3794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -3782,7 +3850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -3838,7 +3906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -3894,7 +3962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -3950,7 +4018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -4006,7 +4074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -4062,7 +4130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -4118,7 +4186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -4174,7 +4242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -4230,7 +4298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -4286,7 +4354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -4342,7 +4410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -4398,7 +4466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -4454,7 +4522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -4510,7 +4578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -4566,7 +4634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -4622,7 +4690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -4678,7 +4746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -4734,7 +4802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -4790,7 +4858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -4846,7 +4914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -4902,7 +4970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -4958,7 +5026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -5014,7 +5082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -5070,7 +5138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -5126,7 +5194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -5182,7 +5250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -5238,7 +5306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -5294,7 +5362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -5350,7 +5418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -5406,7 +5474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5462,7 +5530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -5518,7 +5586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -5574,7 +5642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -5630,7 +5698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -5686,7 +5754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -5742,7 +5810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -5798,7 +5866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -5854,7 +5922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -5910,7 +5978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -5966,7 +6034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -6022,7 +6090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -6078,7 +6146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -6134,7 +6202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -6190,7 +6258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>146</v>
       </c>
@@ -6246,7 +6314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -6302,7 +6370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -6358,7 +6426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -6414,7 +6482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -6470,7 +6538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -6526,7 +6594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -6582,7 +6650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -6638,7 +6706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -6694,7 +6762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -6750,7 +6818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -6806,7 +6874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -6862,7 +6930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -6918,7 +6986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -6974,7 +7042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -7030,7 +7098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -7086,7 +7154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -7142,7 +7210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>163</v>
       </c>
@@ -7198,7 +7266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -7254,7 +7322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -7310,7 +7378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -7366,7 +7434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -7422,7 +7490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -7478,7 +7546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -7534,7 +7602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -7590,7 +7658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>171</v>
       </c>
@@ -7646,7 +7714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -7702,7 +7770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>173</v>
       </c>
@@ -7758,7 +7826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>174</v>
       </c>
@@ -7814,7 +7882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>175</v>
       </c>
@@ -7870,7 +7938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>176</v>
       </c>
@@ -7926,7 +7994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>177</v>
       </c>
@@ -7982,7 +8050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>178</v>
       </c>
@@ -8038,7 +8106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -8094,7 +8162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -8150,7 +8218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -8206,7 +8274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -8262,7 +8330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -8318,7 +8386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -8374,7 +8442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>185</v>
       </c>
@@ -8430,7 +8498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -8486,7 +8554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -8542,7 +8610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -8598,7 +8666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -8654,7 +8722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -8710,7 +8778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -8766,7 +8834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -8822,7 +8890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>193</v>
       </c>
@@ -8878,7 +8946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>194</v>
       </c>
@@ -8934,7 +9002,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>195</v>
       </c>
@@ -8990,7 +9058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>196</v>
       </c>
@@ -9046,7 +9114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>197</v>
       </c>
@@ -9102,7 +9170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>198</v>
       </c>
@@ -9158,7 +9226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -9214,7 +9282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>200</v>
       </c>
@@ -9270,7 +9338,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>201</v>
       </c>
@@ -9326,7 +9394,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>202</v>
       </c>
@@ -9382,7 +9450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>203</v>
       </c>
@@ -9444,39 +9512,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.75">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -9526,7 +9594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -9576,7 +9644,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -9626,7 +9694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -9676,7 +9744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -9726,7 +9794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -9776,7 +9844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -9826,7 +9894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -9876,7 +9944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -9926,7 +9994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -9976,7 +10044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -10026,7 +10094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -10076,7 +10144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -10126,7 +10194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -10176,7 +10244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -10226,7 +10294,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -10276,7 +10344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -10326,9 +10394,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -10376,7 +10444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -10426,7 +10494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -10476,7 +10544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -10526,7 +10594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -10576,7 +10644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -10626,7 +10694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -10676,7 +10744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -10726,7 +10794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -10776,7 +10844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -10826,7 +10894,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -10876,7 +10944,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -10926,7 +10994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -10976,7 +11044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -11026,7 +11094,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -11076,7 +11144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -11126,7 +11194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -11176,7 +11244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -11226,7 +11294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -11276,7 +11344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -11326,7 +11394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -11376,7 +11444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -11426,7 +11494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -11476,7 +11544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -11526,7 +11594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -11576,7 +11644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -11626,7 +11694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -11676,7 +11744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -11726,7 +11794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -11776,7 +11844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -11826,7 +11894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -11876,7 +11944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -11926,7 +11994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -11976,7 +12044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -12026,7 +12094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -12076,7 +12144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -12126,7 +12194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -12176,7 +12244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -12226,7 +12294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -12276,7 +12344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -12326,7 +12394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -12376,7 +12444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -12426,9 +12494,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -12476,7 +12544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -12526,7 +12594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -12576,7 +12644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -12626,7 +12694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -12676,7 +12744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -12726,7 +12794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -12776,7 +12844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -12826,7 +12894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -12876,7 +12944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -12926,7 +12994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -12976,7 +13044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -13026,9 +13094,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -13076,7 +13144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -13126,7 +13194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -13176,9 +13244,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -13226,7 +13294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -13276,7 +13344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -13326,7 +13394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -13376,7 +13444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -13426,7 +13494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -13476,7 +13544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -13526,7 +13594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -13576,7 +13644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -13626,7 +13694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>146</v>
       </c>
@@ -13676,7 +13744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -13726,7 +13794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -13776,7 +13844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -13826,7 +13894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -13876,7 +13944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -13926,7 +13994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -13976,7 +14044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -14026,9 +14094,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -14076,7 +14144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -14126,9 +14194,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -14176,7 +14244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -14226,7 +14294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -14276,7 +14344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -14326,7 +14394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -14376,7 +14444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -14426,7 +14494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -14476,7 +14544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>163</v>
       </c>
@@ -14526,7 +14594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -14576,7 +14644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -14626,7 +14694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -14676,7 +14744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -14726,7 +14794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -14776,7 +14844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -14826,7 +14894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -14876,7 +14944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>171</v>
       </c>
@@ -14926,7 +14994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -14976,7 +15044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>173</v>
       </c>
@@ -15026,7 +15094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>174</v>
       </c>
@@ -15076,7 +15144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>175</v>
       </c>
@@ -15126,7 +15194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>176</v>
       </c>
@@ -15176,7 +15244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>177</v>
       </c>
@@ -15226,7 +15294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>178</v>
       </c>
@@ -15276,7 +15344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -15326,7 +15394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -15376,7 +15444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -15426,7 +15494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -15476,7 +15544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -15526,7 +15594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -15576,7 +15644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>185</v>
       </c>
@@ -15626,7 +15694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -15676,7 +15744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -15726,7 +15794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -15776,7 +15844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>189</v>
       </c>
@@ -15826,7 +15894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -15876,7 +15944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -15926,7 +15994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -15976,7 +16044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>193</v>
       </c>
@@ -16026,7 +16094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>194</v>
       </c>
@@ -16076,7 +16144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>195</v>
       </c>
@@ -16126,7 +16194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>196</v>
       </c>
@@ -16176,7 +16244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>197</v>
       </c>
@@ -16226,7 +16294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>198</v>
       </c>
@@ -16276,7 +16344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -16326,7 +16394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>200</v>
       </c>
@@ -16376,7 +16444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>201</v>
       </c>
@@ -16426,7 +16494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>202</v>
       </c>
@@ -16476,7 +16544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>203</v>
       </c>
